--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BE5B2E636E68A70B70AB5D343BFD5C3809DDE991" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBE7943C-37D2-47F2-9851-C467630FB106}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{3B5B2FDD-1C1D-4007-8ACA-03FA5C3A99DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F0C9096-B2D1-4BDE-96CA-961197C2A61F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="1080" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Production Share (dimensionless)</t>
+  </si>
+  <si>
+    <t>HK has no plan on hydrogen, so use international one</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -487,6 +492,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
@@ -539,8 +549,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -552,545 +562,560 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="2">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2018</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2020</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2021</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2022</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2023</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2024</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>2025</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2026</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2027</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2028</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>2029</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2030</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>2031</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2032</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>2033</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2034</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>2035</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2036</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>2037</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2038</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>2039</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2040</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>2041</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2042</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>2043</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2044</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>2045</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2046</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>2047</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2048</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>2049</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C2">
-        <f>$B2</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>0.05</v>
+        <f>$C2</f>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" ref="E2:AJ6" si="0">$C2</f>
+        <v>0.02</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R6" si="1">$B3</f>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+        <f t="shared" ref="D3:S6" si="1">$C3</f>
+        <v>0.76</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
+        <f t="shared" si="1"/>
+        <v>0.76</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>0.22</f>
+        <v>0.22</v>
       </c>
       <c r="C4">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1098,13 +1123,12 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1229,8 +1253,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1238,13 +1266,12 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1366,6 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1376,24 +1407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1627,25 +1640,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D19A87E-1466-4452-8E04-C30623BC0338}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33CC892-B349-42B0-A31D-69858F8470EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A330DE4A-2A5F-4A2B-8D20-E1F83E2F84D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1663,4 +1676,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33CC892-B349-42B0-A31D-69858F8470EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D19A87E-1466-4452-8E04-C30623BC0338}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>